--- a/Code/Results/Cases/Case_6_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01237234882432</v>
+        <v>1.015459577856687</v>
       </c>
       <c r="D2">
-        <v>1.02719219532605</v>
+        <v>1.030319559322327</v>
       </c>
       <c r="E2">
-        <v>1.024984847249653</v>
+        <v>1.028010329589419</v>
       </c>
       <c r="F2">
-        <v>1.031648701779265</v>
+        <v>1.034788502666502</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046771500204782</v>
+        <v>1.048944784912356</v>
       </c>
       <c r="J2">
-        <v>1.034189199023487</v>
+        <v>1.037187526861162</v>
       </c>
       <c r="K2">
-        <v>1.038285264925117</v>
+        <v>1.041372056402622</v>
       </c>
       <c r="L2">
-        <v>1.036106740384036</v>
+        <v>1.03909275536248</v>
       </c>
       <c r="M2">
-        <v>1.042684048543398</v>
+        <v>1.045783554320308</v>
       </c>
       <c r="N2">
-        <v>1.035657866309275</v>
+        <v>1.038660452116386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018583279468109</v>
+        <v>1.019509756797031</v>
       </c>
       <c r="D3">
-        <v>1.031856173555737</v>
+        <v>1.033289065878837</v>
       </c>
       <c r="E3">
-        <v>1.03029548122368</v>
+        <v>1.031421083490885</v>
       </c>
       <c r="F3">
-        <v>1.03736873730898</v>
+        <v>1.038633096112473</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048608068777352</v>
+        <v>1.050123200506641</v>
       </c>
       <c r="J3">
-        <v>1.038579853530308</v>
+        <v>1.039482335719416</v>
       </c>
       <c r="K3">
-        <v>1.042097049465616</v>
+        <v>1.04351301311258</v>
       </c>
       <c r="L3">
-        <v>1.040554862071896</v>
+        <v>1.041667111235601</v>
       </c>
       <c r="M3">
-        <v>1.047544802767451</v>
+        <v>1.048794416620908</v>
       </c>
       <c r="N3">
-        <v>1.040054756049095</v>
+        <v>1.040958519866428</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022500510778623</v>
+        <v>1.022082220351332</v>
       </c>
       <c r="D4">
-        <v>1.034799843146751</v>
+        <v>1.035177803721195</v>
       </c>
       <c r="E4">
-        <v>1.033650939695127</v>
+        <v>1.033593070723446</v>
       </c>
       <c r="F4">
-        <v>1.040983409859205</v>
+        <v>1.041081360291167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049755477562641</v>
+        <v>1.050863746398173</v>
       </c>
       <c r="J4">
-        <v>1.041345652761265</v>
+        <v>1.040937444886085</v>
       </c>
       <c r="K4">
-        <v>1.044495651340711</v>
+        <v>1.044869421914899</v>
       </c>
       <c r="L4">
-        <v>1.043359507560501</v>
+        <v>1.043302282202139</v>
       </c>
       <c r="M4">
-        <v>1.050611137644868</v>
+        <v>1.050708017642317</v>
       </c>
       <c r="N4">
-        <v>1.042824483032203</v>
+        <v>1.042415695455017</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024124118012875</v>
+        <v>1.023152491613491</v>
       </c>
       <c r="D5">
-        <v>1.036020350167792</v>
+        <v>1.03596420768032</v>
       </c>
       <c r="E5">
-        <v>1.035043087707671</v>
+        <v>1.034498048037627</v>
       </c>
       <c r="F5">
-        <v>1.042483240044561</v>
+        <v>1.042101461268879</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050228383229911</v>
+        <v>1.051169918125128</v>
       </c>
       <c r="J5">
-        <v>1.042491151448136</v>
+        <v>1.041542229638586</v>
       </c>
       <c r="K5">
-        <v>1.045488438251726</v>
+        <v>1.045432901230243</v>
       </c>
       <c r="L5">
-        <v>1.044521726532873</v>
+        <v>1.043982581850575</v>
       </c>
       <c r="M5">
-        <v>1.051882162914622</v>
+        <v>1.051504440713725</v>
       </c>
       <c r="N5">
-        <v>1.043971608458598</v>
+        <v>1.043021339071236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024395400248455</v>
+        <v>1.02333154883594</v>
       </c>
       <c r="D6">
-        <v>1.036224302282573</v>
+        <v>1.036095807514477</v>
       </c>
       <c r="E6">
-        <v>1.035275775795608</v>
+        <v>1.034649528343754</v>
       </c>
       <c r="F6">
-        <v>1.042733934724863</v>
+        <v>1.042272212514087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050307240722174</v>
+        <v>1.051221026463148</v>
       </c>
       <c r="J6">
-        <v>1.042682496029609</v>
+        <v>1.041643373815504</v>
       </c>
       <c r="K6">
-        <v>1.045654236118708</v>
+        <v>1.045527120630733</v>
       </c>
       <c r="L6">
-        <v>1.044715901126189</v>
+        <v>1.044096394977296</v>
       </c>
       <c r="M6">
-        <v>1.052094537505993</v>
+        <v>1.051637697972597</v>
       </c>
       <c r="N6">
-        <v>1.044163224771325</v>
+        <v>1.043122626884487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022522295194614</v>
+        <v>1.022096564875289</v>
       </c>
       <c r="D7">
-        <v>1.034816217495709</v>
+        <v>1.035188341357862</v>
       </c>
       <c r="E7">
-        <v>1.033669613169425</v>
+        <v>1.033605194676894</v>
       </c>
       <c r="F7">
-        <v>1.041003527170387</v>
+        <v>1.041095026499545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049761833303379</v>
+        <v>1.050867857593806</v>
       </c>
       <c r="J7">
-        <v>1.041361025742609</v>
+        <v>1.040945553088083</v>
       </c>
       <c r="K7">
-        <v>1.044508977400438</v>
+        <v>1.044876977472577</v>
       </c>
       <c r="L7">
-        <v>1.04337510243981</v>
+        <v>1.043311400138851</v>
       </c>
       <c r="M7">
-        <v>1.050628191064353</v>
+        <v>1.050718690831031</v>
       </c>
       <c r="N7">
-        <v>1.042839877844943</v>
+        <v>1.042423815171591</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014493121950326</v>
+        <v>1.016838574485269</v>
       </c>
       <c r="D8">
-        <v>1.028784253920227</v>
+        <v>1.031330027288234</v>
       </c>
       <c r="E8">
-        <v>1.026796892742584</v>
+        <v>1.029170411998217</v>
       </c>
       <c r="F8">
-        <v>1.033600330907006</v>
+        <v>1.036096149214101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047400875833855</v>
+        <v>1.049347649507794</v>
       </c>
       <c r="J8">
-        <v>1.035689102889918</v>
+        <v>1.037969351125307</v>
       </c>
       <c r="K8">
-        <v>1.039587944470427</v>
+        <v>1.042101699387324</v>
       </c>
       <c r="L8">
-        <v>1.037625716291128</v>
+        <v>1.039969233084165</v>
       </c>
       <c r="M8">
-        <v>1.044343614970227</v>
+        <v>1.046808404172395</v>
       </c>
       <c r="N8">
-        <v>1.037159900211222</v>
+        <v>1.039443386660654</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9995105278819983</v>
+        <v>1.007186419372991</v>
       </c>
       <c r="D9">
-        <v>1.017549607904007</v>
+        <v>1.024270403030199</v>
       </c>
       <c r="E9">
-        <v>1.014024275235074</v>
+        <v>1.021075825002646</v>
       </c>
       <c r="F9">
-        <v>1.019845805789156</v>
+        <v>1.026971559070278</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042909986963433</v>
+        <v>1.046495624767263</v>
       </c>
       <c r="J9">
-        <v>1.025080582518769</v>
+        <v>1.032487934163445</v>
       </c>
       <c r="K9">
-        <v>1.030364230149879</v>
+        <v>1.03698161086015</v>
       </c>
       <c r="L9">
-        <v>1.026893843545222</v>
+        <v>1.033835971869</v>
       </c>
       <c r="M9">
-        <v>1.032624900195099</v>
+        <v>1.039641689507749</v>
       </c>
       <c r="N9">
-        <v>1.026536314524332</v>
+        <v>1.033954185457978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9888759183947059</v>
+        <v>1.000466162160309</v>
       </c>
       <c r="D10">
-        <v>1.009596099485191</v>
+        <v>1.019373805283717</v>
       </c>
       <c r="E10">
-        <v>1.004998918066186</v>
+        <v>1.015473752640158</v>
       </c>
       <c r="F10">
-        <v>1.01012876194041</v>
+        <v>1.020655756748161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039668102760179</v>
+        <v>1.044470464997097</v>
       </c>
       <c r="J10">
-        <v>1.017537949053721</v>
+        <v>1.028661297056756</v>
       </c>
       <c r="K10">
-        <v>1.023794228303926</v>
+        <v>1.033401853804029</v>
       </c>
       <c r="L10">
-        <v>1.019278498295153</v>
+        <v>1.029569133254816</v>
       </c>
       <c r="M10">
-        <v>1.02431751533673</v>
+        <v>1.034661818339081</v>
       </c>
       <c r="N10">
-        <v>1.018982969654611</v>
+        <v>1.030122114087676</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9840961302478914</v>
+        <v>0.9974824384906413</v>
       </c>
       <c r="D11">
-        <v>1.006027888839382</v>
+        <v>1.017204880869602</v>
       </c>
       <c r="E11">
-        <v>1.000953375763549</v>
+        <v>1.01299505009993</v>
       </c>
       <c r="F11">
-        <v>1.005773556646348</v>
+        <v>1.017860900887674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038199035323063</v>
+        <v>1.043562426025395</v>
       </c>
       <c r="J11">
-        <v>1.014145829374029</v>
+        <v>1.026960327313108</v>
       </c>
       <c r="K11">
-        <v>1.020837016331398</v>
+        <v>1.031809471886653</v>
       </c>
       <c r="L11">
-        <v>1.015857335182432</v>
+        <v>1.027675990455946</v>
       </c>
       <c r="M11">
-        <v>1.020587407359316</v>
+        <v>1.032453668269846</v>
       </c>
       <c r="N11">
-        <v>1.015586032775893</v>
+        <v>1.028418728771888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9822923545767679</v>
+        <v>0.9963625093814724</v>
       </c>
       <c r="D12">
-        <v>1.004682464636677</v>
+        <v>1.016391613484312</v>
       </c>
       <c r="E12">
-        <v>0.9994284562108724</v>
+        <v>1.012066014332985</v>
       </c>
       <c r="F12">
-        <v>1.00413195851882</v>
+        <v>1.016813302514395</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037642927606565</v>
+        <v>1.043220302761495</v>
       </c>
       <c r="J12">
-        <v>1.012865511485206</v>
+        <v>1.026321616161938</v>
       </c>
       <c r="K12">
-        <v>1.019720502501293</v>
+        <v>1.031211372656885</v>
       </c>
       <c r="L12">
-        <v>1.014566614295368</v>
+        <v>1.026965642854507</v>
       </c>
       <c r="M12">
-        <v>1.019180422571513</v>
+        <v>1.031625322821539</v>
       </c>
       <c r="N12">
-        <v>1.014303896688813</v>
+        <v>1.027779110577623</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9826805890367862</v>
+        <v>0.9966032740158374</v>
       </c>
       <c r="D13">
-        <v>1.00497199250582</v>
+        <v>1.016566412834012</v>
       </c>
       <c r="E13">
-        <v>0.9997565892628889</v>
+        <v>1.012265679149732</v>
       </c>
       <c r="F13">
-        <v>1.004485196687481</v>
+        <v>1.017038451546675</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037762697229867</v>
+        <v>1.043293910929991</v>
       </c>
       <c r="J13">
-        <v>1.013141087987985</v>
+        <v>1.026458938630175</v>
       </c>
       <c r="K13">
-        <v>1.019960836869373</v>
+        <v>1.031339970765751</v>
       </c>
       <c r="L13">
-        <v>1.014844404532576</v>
+        <v>1.027118343447781</v>
       </c>
       <c r="M13">
-        <v>1.019483221984638</v>
+        <v>1.031803379988029</v>
       </c>
       <c r="N13">
-        <v>1.014579864541835</v>
+        <v>1.027916628059516</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9839476206376111</v>
+        <v>0.9973901055941391</v>
       </c>
       <c r="D14">
-        <v>1.005917092644942</v>
+        <v>1.017137813550973</v>
       </c>
       <c r="E14">
-        <v>1.00082778844626</v>
+        <v>1.012918428010144</v>
       </c>
       <c r="F14">
-        <v>1.005638359220711</v>
+        <v>1.017774501782298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038153283867925</v>
+        <v>1.043534245645285</v>
       </c>
       <c r="J14">
-        <v>1.014040421223047</v>
+        <v>1.026907673608005</v>
       </c>
       <c r="K14">
-        <v>1.020745100977707</v>
+        <v>1.031760169368589</v>
       </c>
       <c r="L14">
-        <v>1.015751059147391</v>
+        <v>1.027617420576902</v>
       </c>
       <c r="M14">
-        <v>1.020471552368938</v>
+        <v>1.032385365147522</v>
       </c>
       <c r="N14">
-        <v>1.015480474933246</v>
+        <v>1.028366000292484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9847244585113963</v>
+        <v>0.9978733388175589</v>
       </c>
       <c r="D15">
-        <v>1.00649670264121</v>
+        <v>1.017488851128808</v>
       </c>
       <c r="E15">
-        <v>1.001484795027386</v>
+        <v>1.013319491964014</v>
       </c>
       <c r="F15">
-        <v>1.006345642587793</v>
+        <v>1.018226738918679</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038392535457112</v>
+        <v>1.043681677877194</v>
       </c>
       <c r="J15">
-        <v>1.014591791813541</v>
+        <v>1.02718323159598</v>
       </c>
       <c r="K15">
-        <v>1.021225879299124</v>
+        <v>1.032018182681169</v>
       </c>
       <c r="L15">
-        <v>1.016306992290178</v>
+        <v>1.027923961644684</v>
       </c>
       <c r="M15">
-        <v>1.021077605259104</v>
+        <v>1.032742855854076</v>
       </c>
       <c r="N15">
-        <v>1.016032628533221</v>
+        <v>1.028641949604409</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9891892798903873</v>
+        <v>1.000662580631702</v>
       </c>
       <c r="D16">
-        <v>1.009830178322783</v>
+        <v>1.019516697361927</v>
       </c>
       <c r="E16">
-        <v>1.005264380175373</v>
+        <v>1.015637108264274</v>
       </c>
       <c r="F16">
-        <v>1.010414550560882</v>
+        <v>1.020839939558501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039764172523085</v>
+        <v>1.044530059207616</v>
       </c>
       <c r="J16">
-        <v>1.017760300658311</v>
+        <v>1.028773233775218</v>
       </c>
       <c r="K16">
-        <v>1.023988022343892</v>
+        <v>1.033506621474158</v>
       </c>
       <c r="L16">
-        <v>1.019502830353112</v>
+        <v>1.029693789251101</v>
       </c>
       <c r="M16">
-        <v>1.024562146006547</v>
+        <v>1.034807244271629</v>
       </c>
       <c r="N16">
-        <v>1.019205637023984</v>
+        <v>1.030234209769118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9919417159011309</v>
+        <v>1.002392058285133</v>
       </c>
       <c r="D17">
-        <v>1.01188698623438</v>
+        <v>1.020775461858423</v>
       </c>
       <c r="E17">
-        <v>1.007597342894914</v>
+        <v>1.017076446965824</v>
       </c>
       <c r="F17">
-        <v>1.012926190647962</v>
+        <v>1.02246274609246</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040606661245843</v>
+        <v>1.045053781632954</v>
       </c>
       <c r="J17">
-        <v>1.019713123375294</v>
+        <v>1.029758622562539</v>
       </c>
       <c r="K17">
-        <v>1.025689754930552</v>
+        <v>1.03442877046329</v>
       </c>
       <c r="L17">
-        <v>1.02147346168334</v>
+        <v>1.030791545515745</v>
       </c>
       <c r="M17">
-        <v>1.026711310296964</v>
+        <v>1.036088060695975</v>
       </c>
       <c r="N17">
-        <v>1.021161232973217</v>
+        <v>1.031220997921543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9935304373950454</v>
+        <v>1.003393750994356</v>
       </c>
       <c r="D18">
-        <v>1.013074794085921</v>
+        <v>1.021505005022397</v>
       </c>
       <c r="E18">
-        <v>1.008944967343904</v>
+        <v>1.017910904821294</v>
       </c>
       <c r="F18">
-        <v>1.014377063912359</v>
+        <v>1.023403536616482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041091814118603</v>
+        <v>1.045356267632649</v>
       </c>
       <c r="J18">
-        <v>1.020840104907319</v>
+        <v>1.030329156774599</v>
       </c>
       <c r="K18">
-        <v>1.026671592556598</v>
+        <v>1.034962579049441</v>
       </c>
       <c r="L18">
-        <v>1.022611064863856</v>
+        <v>1.031427472379678</v>
       </c>
       <c r="M18">
-        <v>1.027952160836177</v>
+        <v>1.036830163007465</v>
       </c>
       <c r="N18">
-        <v>1.022289814948284</v>
+        <v>1.031792342357625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9940693723956581</v>
+        <v>1.003734117261176</v>
       </c>
       <c r="D19">
-        <v>1.013477827624391</v>
+        <v>1.021752977230905</v>
       </c>
       <c r="E19">
-        <v>1.009402286487708</v>
+        <v>1.018194582146557</v>
       </c>
       <c r="F19">
-        <v>1.014869427321535</v>
+        <v>1.023723356943483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041256195277155</v>
+        <v>1.045458904676838</v>
       </c>
       <c r="J19">
-        <v>1.021222369590989</v>
+        <v>1.030522985651199</v>
       </c>
       <c r="K19">
-        <v>1.027004584016774</v>
+        <v>1.035143912051466</v>
       </c>
       <c r="L19">
-        <v>1.022996990462609</v>
+        <v>1.031643573712447</v>
       </c>
       <c r="M19">
-        <v>1.028373143758428</v>
+        <v>1.037082367041434</v>
       </c>
       <c r="N19">
-        <v>1.022672622491651</v>
+        <v>1.031986446493462</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.991648150071359</v>
+        <v>1.002207238146453</v>
       </c>
       <c r="D20">
-        <v>1.011667549790253</v>
+        <v>1.020640893938295</v>
       </c>
       <c r="E20">
-        <v>1.007348409396672</v>
+        <v>1.016922548071396</v>
       </c>
       <c r="F20">
-        <v>1.012658188056222</v>
+        <v>1.022289233712453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040516921595602</v>
+        <v>1.044997901820621</v>
       </c>
       <c r="J20">
-        <v>1.019504861694247</v>
+        <v>1.029653338820444</v>
       </c>
       <c r="K20">
-        <v>1.025508295726891</v>
+        <v>1.034330254922694</v>
       </c>
       <c r="L20">
-        <v>1.021263264959699</v>
+        <v>1.03067422140115</v>
       </c>
       <c r="M20">
-        <v>1.026482051294975</v>
+        <v>1.035951158416009</v>
       </c>
       <c r="N20">
-        <v>1.020952675536695</v>
+        <v>1.031115564664458</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.983575311692221</v>
+        <v>0.9971587292700732</v>
       </c>
       <c r="D21">
-        <v>1.00563934879093</v>
+        <v>1.016969763640701</v>
       </c>
       <c r="E21">
-        <v>1.000512973886791</v>
+        <v>1.012726442975891</v>
       </c>
       <c r="F21">
-        <v>1.005299455319618</v>
+        <v>1.017558018256675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038038559058492</v>
+        <v>1.043463607924507</v>
       </c>
       <c r="J21">
-        <v>1.013776163161119</v>
+        <v>1.026775725043391</v>
       </c>
       <c r="K21">
-        <v>1.020514663858488</v>
+        <v>1.031636616191683</v>
       </c>
       <c r="L21">
-        <v>1.015484634333718</v>
+        <v>1.027470654703393</v>
       </c>
       <c r="M21">
-        <v>1.020181118667439</v>
+        <v>1.032214212671145</v>
       </c>
       <c r="N21">
-        <v>1.015215841594559</v>
+        <v>1.028233864345774</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9783343878520397</v>
+        <v>0.9939168796804999</v>
       </c>
       <c r="D22">
-        <v>1.001732504305328</v>
+        <v>1.01461724760052</v>
       </c>
       <c r="E22">
-        <v>0.9960857807541311</v>
+        <v>1.010039756686099</v>
       </c>
       <c r="F22">
-        <v>1.000533589208932</v>
+        <v>1.014528320279606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036419611701545</v>
+        <v>1.042470863801113</v>
       </c>
       <c r="J22">
-        <v>1.010055864451755</v>
+        <v>1.024926408494884</v>
       </c>
       <c r="K22">
-        <v>1.017269717899818</v>
+        <v>1.029904591053848</v>
       </c>
       <c r="L22">
-        <v>1.01173517994615</v>
+        <v>1.025414913675958</v>
       </c>
       <c r="M22">
-        <v>1.016094482998833</v>
+        <v>1.029817359819955</v>
       </c>
       <c r="N22">
-        <v>1.011490259634304</v>
+        <v>1.026381921555649</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9811291096086532</v>
+        <v>0.9956420515700348</v>
       </c>
       <c r="D23">
-        <v>1.003815146659333</v>
+        <v>1.015868674970554</v>
       </c>
       <c r="E23">
-        <v>0.9984455591602014</v>
+        <v>1.011468742204116</v>
       </c>
       <c r="F23">
-        <v>1.003073866720287</v>
+        <v>1.016139786892834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037283823671625</v>
+        <v>1.042999853179028</v>
       </c>
       <c r="J23">
-        <v>1.012039793240056</v>
+        <v>1.025910661167868</v>
       </c>
       <c r="K23">
-        <v>1.019000332904102</v>
+        <v>1.030826503414382</v>
       </c>
       <c r="L23">
-        <v>1.0137343457368</v>
+        <v>1.026508743564275</v>
       </c>
       <c r="M23">
-        <v>1.018273268755245</v>
+        <v>1.031092582418862</v>
       </c>
       <c r="N23">
-        <v>1.013477005829043</v>
+        <v>1.027367571980324</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9917808513744808</v>
+        <v>1.002290772258311</v>
       </c>
       <c r="D24">
-        <v>1.011766740327679</v>
+        <v>1.020701713806735</v>
       </c>
       <c r="E24">
-        <v>1.007460932261045</v>
+        <v>1.016992104041651</v>
       </c>
       <c r="F24">
-        <v>1.012779330413187</v>
+        <v>1.022367654272638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040557490369529</v>
+        <v>1.045023160738457</v>
       </c>
       <c r="J24">
-        <v>1.019599003371205</v>
+        <v>1.029700925052121</v>
       </c>
       <c r="K24">
-        <v>1.025590322475675</v>
+        <v>1.03437478239942</v>
       </c>
       <c r="L24">
-        <v>1.021358280276812</v>
+        <v>1.030727248619194</v>
       </c>
       <c r="M24">
-        <v>1.026585682770701</v>
+        <v>1.036013034016259</v>
       </c>
       <c r="N24">
-        <v>1.021046950905633</v>
+        <v>1.031163218474041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003491048185178</v>
+        <v>1.009730104684764</v>
       </c>
       <c r="D25">
-        <v>1.020531313687514</v>
+        <v>1.026127868416896</v>
       </c>
       <c r="E25">
-        <v>1.017411108253609</v>
+        <v>1.023203384099879</v>
       </c>
       <c r="F25">
-        <v>1.023492596736546</v>
+        <v>1.029369949126511</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044112668551316</v>
+        <v>1.047254199958854</v>
       </c>
       <c r="J25">
-        <v>1.027901493117552</v>
+        <v>1.033934391177543</v>
       </c>
       <c r="K25">
-        <v>1.032819053852474</v>
+        <v>1.038333684054945</v>
       </c>
       <c r="L25">
-        <v>1.02974502062505</v>
+        <v>1.035451867579179</v>
       </c>
       <c r="M25">
-        <v>1.035736846854039</v>
+        <v>1.041528822269368</v>
       </c>
       <c r="N25">
-        <v>1.029361231139728</v>
+        <v>1.035402696606947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015459577856687</v>
+        <v>1.010822811140761</v>
       </c>
       <c r="D2">
-        <v>1.030319559322327</v>
+        <v>1.027561994155947</v>
       </c>
       <c r="E2">
-        <v>1.028010329589419</v>
+        <v>1.024046994073128</v>
       </c>
       <c r="F2">
-        <v>1.034788502666502</v>
+        <v>1.030832506703028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048944784912356</v>
+        <v>1.0470587296847</v>
       </c>
       <c r="J2">
-        <v>1.037187526861162</v>
+        <v>1.032684563183312</v>
       </c>
       <c r="K2">
-        <v>1.041372056402622</v>
+        <v>1.038650250089448</v>
       </c>
       <c r="L2">
-        <v>1.03909275536248</v>
+        <v>1.03518118082847</v>
       </c>
       <c r="M2">
-        <v>1.045783554320308</v>
+        <v>1.04187837851642</v>
       </c>
       <c r="N2">
-        <v>1.038660452116386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014774617708972</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038399347331586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019509756797031</v>
+        <v>1.0141775995135</v>
       </c>
       <c r="D3">
-        <v>1.033289065878837</v>
+        <v>1.029735771432281</v>
       </c>
       <c r="E3">
-        <v>1.031421083490885</v>
+        <v>1.026840987169241</v>
       </c>
       <c r="F3">
-        <v>1.038633096112473</v>
+        <v>1.034054181731955</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050123200506641</v>
+        <v>1.047815636601716</v>
       </c>
       <c r="J3">
-        <v>1.039482335719416</v>
+        <v>1.034289091383584</v>
       </c>
       <c r="K3">
-        <v>1.04351301311258</v>
+        <v>1.040001805628476</v>
       </c>
       <c r="L3">
-        <v>1.041667111235601</v>
+        <v>1.037141575655197</v>
       </c>
       <c r="M3">
-        <v>1.048794416620908</v>
+        <v>1.044269113415866</v>
       </c>
       <c r="N3">
-        <v>1.040958519866428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015314235156977</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03935234829699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022082220351332</v>
+        <v>1.01631427955527</v>
       </c>
       <c r="D4">
-        <v>1.035177803721195</v>
+        <v>1.031124448625545</v>
       </c>
       <c r="E4">
-        <v>1.033593070723446</v>
+        <v>1.02862608437711</v>
       </c>
       <c r="F4">
-        <v>1.041081360291167</v>
+        <v>1.036112061533902</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050863746398173</v>
+        <v>1.048290899215182</v>
       </c>
       <c r="J4">
-        <v>1.040937444886085</v>
+        <v>1.035309674694654</v>
       </c>
       <c r="K4">
-        <v>1.044869421914899</v>
+        <v>1.040861198693846</v>
       </c>
       <c r="L4">
-        <v>1.043302282202139</v>
+        <v>1.038390870576834</v>
       </c>
       <c r="M4">
-        <v>1.050708017642317</v>
+        <v>1.045793338845747</v>
       </c>
       <c r="N4">
-        <v>1.042415695455017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015657460803939</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039960908143279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023152491613491</v>
+        <v>1.017207113069001</v>
       </c>
       <c r="D5">
-        <v>1.03596420768032</v>
+        <v>1.031707794210125</v>
       </c>
       <c r="E5">
-        <v>1.034498048037627</v>
+        <v>1.029373509582069</v>
       </c>
       <c r="F5">
-        <v>1.042101461268879</v>
+        <v>1.036973281934364</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051169918125128</v>
+        <v>1.048489137179786</v>
       </c>
       <c r="J5">
-        <v>1.041542229638586</v>
+        <v>1.035737047722208</v>
       </c>
       <c r="K5">
-        <v>1.045432901230243</v>
+        <v>1.041222626308609</v>
       </c>
       <c r="L5">
-        <v>1.043982581850575</v>
+        <v>1.03891384372035</v>
       </c>
       <c r="M5">
-        <v>1.051504440713725</v>
+        <v>1.046431105427726</v>
       </c>
       <c r="N5">
-        <v>1.043021339071236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015801384363464</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040223635846514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02333154883594</v>
+        <v>1.017359626026635</v>
       </c>
       <c r="D6">
-        <v>1.036095807514477</v>
+        <v>1.031810042313479</v>
       </c>
       <c r="E6">
-        <v>1.034649528343754</v>
+        <v>1.029501484785838</v>
       </c>
       <c r="F6">
-        <v>1.042272212514087</v>
+        <v>1.037120351351632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051221026463148</v>
+        <v>1.048524490434221</v>
       </c>
       <c r="J6">
-        <v>1.041643373815504</v>
+        <v>1.035811555312348</v>
       </c>
       <c r="K6">
-        <v>1.045527120630733</v>
+        <v>1.04128760080548</v>
       </c>
       <c r="L6">
-        <v>1.044096394977296</v>
+        <v>1.039004149497993</v>
       </c>
       <c r="M6">
-        <v>1.051637697972597</v>
+        <v>1.046540678516173</v>
       </c>
       <c r="N6">
-        <v>1.043122626884487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015826717988228</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040278319858161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022096564875289</v>
+        <v>1.016334464968705</v>
       </c>
       <c r="D7">
-        <v>1.035188341357862</v>
+        <v>1.031144438154149</v>
       </c>
       <c r="E7">
-        <v>1.033605194676894</v>
+        <v>1.028643581541676</v>
       </c>
       <c r="F7">
-        <v>1.041095026499545</v>
+        <v>1.036131189615909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050867857593806</v>
+        <v>1.048299644771038</v>
       </c>
       <c r="J7">
-        <v>1.040945553088083</v>
+        <v>1.035323424478402</v>
       </c>
       <c r="K7">
-        <v>1.044876977472577</v>
+        <v>1.040878084263679</v>
       </c>
       <c r="L7">
-        <v>1.043311400138851</v>
+        <v>1.03840528113638</v>
       </c>
       <c r="M7">
-        <v>1.050718690831031</v>
+        <v>1.045809393606762</v>
       </c>
       <c r="N7">
-        <v>1.042423815171591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015662749988766</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039992953467162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016838574485269</v>
+        <v>1.011974006248917</v>
       </c>
       <c r="D8">
-        <v>1.031330027288234</v>
+        <v>1.028315427439783</v>
       </c>
       <c r="E8">
-        <v>1.029170411998217</v>
+        <v>1.025005374535702</v>
       </c>
       <c r="F8">
-        <v>1.036096149214101</v>
+        <v>1.031936389555425</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049347649507794</v>
+        <v>1.047325095963</v>
       </c>
       <c r="J8">
-        <v>1.037969351125307</v>
+        <v>1.033240479349341</v>
       </c>
       <c r="K8">
-        <v>1.042101699387324</v>
+        <v>1.039125036039036</v>
       </c>
       <c r="L8">
-        <v>1.039969233084165</v>
+        <v>1.035856958693564</v>
       </c>
       <c r="M8">
-        <v>1.046808404172395</v>
+        <v>1.042700464417089</v>
       </c>
       <c r="N8">
-        <v>1.039443386660654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014962436090413</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038757967027511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007186419372991</v>
+        <v>1.004005807884802</v>
       </c>
       <c r="D9">
-        <v>1.024270403030199</v>
+        <v>1.023169452087719</v>
       </c>
       <c r="E9">
-        <v>1.021075825002646</v>
+        <v>1.018401246081108</v>
       </c>
       <c r="F9">
-        <v>1.026971559070278</v>
+        <v>1.024319555088008</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046495624767263</v>
+        <v>1.045484829945739</v>
       </c>
       <c r="J9">
-        <v>1.032487934163445</v>
+        <v>1.029417899458271</v>
       </c>
       <c r="K9">
-        <v>1.03698161086015</v>
+        <v>1.035897481809329</v>
       </c>
       <c r="L9">
-        <v>1.033835971869</v>
+        <v>1.031202667511256</v>
       </c>
       <c r="M9">
-        <v>1.039641689507749</v>
+        <v>1.037030012978307</v>
       </c>
       <c r="N9">
-        <v>1.033954185457978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013676136676173</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036472699100158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000466162160309</v>
+        <v>0.9984989037473114</v>
       </c>
       <c r="D10">
-        <v>1.019373805283717</v>
+        <v>1.019640747230876</v>
       </c>
       <c r="E10">
-        <v>1.015473752640158</v>
+        <v>1.01386965494679</v>
       </c>
       <c r="F10">
-        <v>1.020655756748161</v>
+        <v>1.019089385464128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044470464997097</v>
+        <v>1.044180453138839</v>
       </c>
       <c r="J10">
-        <v>1.028661297056756</v>
+        <v>1.026772205300404</v>
       </c>
       <c r="K10">
-        <v>1.033401853804029</v>
+        <v>1.033664211501434</v>
       </c>
       <c r="L10">
-        <v>1.029569133254816</v>
+        <v>1.027992924015307</v>
       </c>
       <c r="M10">
-        <v>1.034661818339081</v>
+        <v>1.033122321801675</v>
       </c>
       <c r="N10">
-        <v>1.030122114087676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012786261410283</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034910458376506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9974824384906413</v>
+        <v>0.996074359137891</v>
       </c>
       <c r="D11">
-        <v>1.017204880869602</v>
+        <v>1.018101771419743</v>
       </c>
       <c r="E11">
-        <v>1.01299505009993</v>
+        <v>1.011883539902426</v>
       </c>
       <c r="F11">
-        <v>1.017860900887674</v>
+        <v>1.016794827819813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043562426025395</v>
+        <v>1.043603487363238</v>
       </c>
       <c r="J11">
-        <v>1.026960327313108</v>
+        <v>1.025611366198779</v>
       </c>
       <c r="K11">
-        <v>1.031809471886653</v>
+        <v>1.032690202494181</v>
       </c>
       <c r="L11">
-        <v>1.027675990455946</v>
+        <v>1.026584776589446</v>
       </c>
       <c r="M11">
-        <v>1.032453668269846</v>
+        <v>1.031406819413303</v>
       </c>
       <c r="N11">
-        <v>1.028418728771888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01239686119274</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034254660646797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9963625093814724</v>
+        <v>0.9951601997215892</v>
       </c>
       <c r="D12">
-        <v>1.016391613484312</v>
+        <v>1.017517985130373</v>
       </c>
       <c r="E12">
-        <v>1.012066014332985</v>
+        <v>1.011135397871055</v>
       </c>
       <c r="F12">
-        <v>1.016813302514395</v>
+        <v>1.015931097418311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043220302761495</v>
+        <v>1.043382039247885</v>
       </c>
       <c r="J12">
-        <v>1.026321616161938</v>
+        <v>1.025170810420563</v>
       </c>
       <c r="K12">
-        <v>1.031211372656885</v>
+        <v>1.032317091696265</v>
       </c>
       <c r="L12">
-        <v>1.026965642854507</v>
+        <v>1.026052326148702</v>
       </c>
       <c r="M12">
-        <v>1.031625322821539</v>
+        <v>1.03075931757365</v>
       </c>
       <c r="N12">
-        <v>1.027779110577623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012248550604875</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033990858716251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966032740158374</v>
+        <v>0.9953555250430931</v>
       </c>
       <c r="D13">
-        <v>1.016566412834012</v>
+        <v>1.017641788977701</v>
       </c>
       <c r="E13">
-        <v>1.012265679149732</v>
+        <v>1.011295086197912</v>
       </c>
       <c r="F13">
-        <v>1.017038451546675</v>
+        <v>1.016115611482404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043293910929991</v>
+        <v>1.04342886514227</v>
       </c>
       <c r="J13">
-        <v>1.026458938630175</v>
+        <v>1.025264411092186</v>
       </c>
       <c r="K13">
-        <v>1.031339970765751</v>
+        <v>1.032395702785875</v>
       </c>
       <c r="L13">
-        <v>1.027118343447781</v>
+        <v>1.026165724634107</v>
       </c>
       <c r="M13">
-        <v>1.031803379988029</v>
+        <v>1.030897420404127</v>
       </c>
       <c r="N13">
-        <v>1.027916628059516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012279953723323</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034043943494589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9973901055941391</v>
+        <v>0.9959984761284316</v>
       </c>
       <c r="D14">
-        <v>1.017137813550973</v>
+        <v>1.018052912622125</v>
       </c>
       <c r="E14">
-        <v>1.012918428010144</v>
+        <v>1.011821366210201</v>
       </c>
       <c r="F14">
-        <v>1.017774501782298</v>
+        <v>1.016723114039739</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043534245645285</v>
+        <v>1.043584896998359</v>
       </c>
       <c r="J14">
-        <v>1.026907673608005</v>
+        <v>1.025574569371509</v>
       </c>
       <c r="K14">
-        <v>1.031760169368589</v>
+        <v>1.032658756442342</v>
       </c>
       <c r="L14">
-        <v>1.027617420576902</v>
+        <v>1.026540421059852</v>
       </c>
       <c r="M14">
-        <v>1.032385365147522</v>
+        <v>1.031352965397848</v>
       </c>
       <c r="N14">
-        <v>1.028366000292484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012384428206291</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034231357973463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978733388175589</v>
+        <v>0.9963957995972594</v>
       </c>
       <c r="D15">
-        <v>1.017488851128808</v>
+        <v>1.018308871950043</v>
       </c>
       <c r="E15">
-        <v>1.013319491964014</v>
+        <v>1.012146969824512</v>
       </c>
       <c r="F15">
-        <v>1.018226738918679</v>
+        <v>1.017098658076058</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043681677877194</v>
+        <v>1.043682246282017</v>
       </c>
       <c r="J15">
-        <v>1.02718323159598</v>
+        <v>1.025767288416717</v>
       </c>
       <c r="K15">
-        <v>1.032018182681169</v>
+        <v>1.032823519527351</v>
       </c>
       <c r="L15">
-        <v>1.027923961644684</v>
+        <v>1.026772715215337</v>
       </c>
       <c r="M15">
-        <v>1.032742855854076</v>
+        <v>1.031634987550687</v>
       </c>
       <c r="N15">
-        <v>1.028641949604409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01244955535357</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034353730243798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000662580631702</v>
+        <v>0.9986780000875503</v>
       </c>
       <c r="D16">
-        <v>1.019516697361927</v>
+        <v>1.019769918576467</v>
       </c>
       <c r="E16">
-        <v>1.015637108264274</v>
+        <v>1.01401835576506</v>
       </c>
       <c r="F16">
-        <v>1.020839939558501</v>
+        <v>1.019258639501591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044530059207616</v>
+        <v>1.044232286624948</v>
       </c>
       <c r="J16">
-        <v>1.028773233775218</v>
+        <v>1.026867213845555</v>
       </c>
       <c r="K16">
-        <v>1.033506621474158</v>
+        <v>1.033755508276513</v>
       </c>
       <c r="L16">
-        <v>1.029693789251101</v>
+        <v>1.028103086430483</v>
       </c>
       <c r="M16">
-        <v>1.034807244271629</v>
+        <v>1.033252983678714</v>
       </c>
       <c r="N16">
-        <v>1.030234209769118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012819941297548</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03501585296809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002392058285133</v>
+        <v>1.000095734962857</v>
       </c>
       <c r="D17">
-        <v>1.020775461858423</v>
+        <v>1.020679251030044</v>
       </c>
       <c r="E17">
-        <v>1.017076446965824</v>
+        <v>1.015183041844865</v>
       </c>
       <c r="F17">
-        <v>1.02246274609246</v>
+        <v>1.020602698123935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045053781632954</v>
+        <v>1.044571926668164</v>
       </c>
       <c r="J17">
-        <v>1.029758622562539</v>
+        <v>1.027550234714432</v>
       </c>
       <c r="K17">
-        <v>1.03442877046329</v>
+        <v>1.0343341594762</v>
       </c>
       <c r="L17">
-        <v>1.030791545515745</v>
+        <v>1.028929993396652</v>
       </c>
       <c r="M17">
-        <v>1.036088060695975</v>
+        <v>1.034258879807232</v>
       </c>
       <c r="N17">
-        <v>1.031220997921543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013049944956027</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035427572673772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003393750994356</v>
+        <v>1.000911868301672</v>
       </c>
       <c r="D18">
-        <v>1.021505005022397</v>
+        <v>1.021198602653242</v>
       </c>
       <c r="E18">
-        <v>1.017910904821294</v>
+        <v>1.015853724645004</v>
       </c>
       <c r="F18">
-        <v>1.023403536616482</v>
+        <v>1.021377357139996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045356267632649</v>
+        <v>1.044763810337495</v>
       </c>
       <c r="J18">
-        <v>1.030329156774599</v>
+        <v>1.02794047055797</v>
       </c>
       <c r="K18">
-        <v>1.034962579049441</v>
+        <v>1.034661185153986</v>
       </c>
       <c r="L18">
-        <v>1.031427472379678</v>
+        <v>1.029404300562883</v>
       </c>
       <c r="M18">
-        <v>1.036830163007465</v>
+        <v>1.03483701723854</v>
       </c>
       <c r="N18">
-        <v>1.031792342357625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013180812732614</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03564714179153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003734117261176</v>
+        <v>1.001193910581865</v>
       </c>
       <c r="D19">
-        <v>1.021752977230905</v>
+        <v>1.021381845472441</v>
       </c>
       <c r="E19">
-        <v>1.018194582146557</v>
+        <v>1.016086049757533</v>
       </c>
       <c r="F19">
-        <v>1.023723356943483</v>
+        <v>1.021645089168231</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045458904676838</v>
+        <v>1.044832241104238</v>
       </c>
       <c r="J19">
-        <v>1.030522985651199</v>
+        <v>1.028077525226239</v>
       </c>
       <c r="K19">
-        <v>1.035143912051466</v>
+        <v>1.034778811195596</v>
       </c>
       <c r="L19">
-        <v>1.031643573712447</v>
+        <v>1.0295696897611</v>
       </c>
       <c r="M19">
-        <v>1.037082367041434</v>
+        <v>1.035037776592939</v>
       </c>
       <c r="N19">
-        <v>1.031986446493462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013227200666083</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035736706638187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002207238146453</v>
+        <v>0.9999436718867463</v>
       </c>
       <c r="D20">
-        <v>1.020640893938295</v>
+        <v>1.020581289701057</v>
       </c>
       <c r="E20">
-        <v>1.016922548071396</v>
+        <v>1.015057998280698</v>
       </c>
       <c r="F20">
-        <v>1.022289233712453</v>
+        <v>1.020458465032389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044997901820621</v>
+        <v>1.044535351091223</v>
       </c>
       <c r="J20">
-        <v>1.029653338820444</v>
+        <v>1.027476765060917</v>
       </c>
       <c r="K20">
-        <v>1.034330254922694</v>
+        <v>1.034271644924843</v>
       </c>
       <c r="L20">
-        <v>1.03067422140115</v>
+        <v>1.02884113964823</v>
       </c>
       <c r="M20">
-        <v>1.035951158416009</v>
+        <v>1.034150869527428</v>
       </c>
       <c r="N20">
-        <v>1.031115564664458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013025161788075</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03538203563133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9971587292700732</v>
+        <v>0.9958157045516771</v>
       </c>
       <c r="D21">
-        <v>1.016969763640701</v>
+        <v>1.017940987691076</v>
       </c>
       <c r="E21">
-        <v>1.012726442975891</v>
+        <v>1.011672329709605</v>
       </c>
       <c r="F21">
-        <v>1.017558018256675</v>
+        <v>1.016550255647696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043463607924507</v>
+        <v>1.043543610794661</v>
       </c>
       <c r="J21">
-        <v>1.026775725043391</v>
+        <v>1.025489417169101</v>
       </c>
       <c r="K21">
-        <v>1.031636616191683</v>
+        <v>1.032590251983183</v>
       </c>
       <c r="L21">
-        <v>1.027470654703393</v>
+        <v>1.026435889869376</v>
       </c>
       <c r="M21">
-        <v>1.032214212671145</v>
+        <v>1.031224718745985</v>
       </c>
       <c r="N21">
-        <v>1.028233864345774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012356342317973</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034196451822002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9939168796804999</v>
+        <v>0.9931661498458177</v>
       </c>
       <c r="D22">
-        <v>1.01461724760052</v>
+        <v>1.016245856813474</v>
       </c>
       <c r="E22">
-        <v>1.010039756686099</v>
+        <v>1.009505736058959</v>
       </c>
       <c r="F22">
-        <v>1.014528320279606</v>
+        <v>1.014049476031359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042470863801113</v>
+        <v>1.042896560268655</v>
       </c>
       <c r="J22">
-        <v>1.024926408494884</v>
+        <v>1.024209245652297</v>
       </c>
       <c r="K22">
-        <v>1.029904591053848</v>
+        <v>1.03150220688439</v>
       </c>
       <c r="L22">
-        <v>1.025414913675958</v>
+        <v>1.024891205543365</v>
       </c>
       <c r="M22">
-        <v>1.029817359819955</v>
+        <v>1.029347655130971</v>
       </c>
       <c r="N22">
-        <v>1.026381921555649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011924784140186</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033413636596228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9956420515700348</v>
+        <v>0.9945676309443598</v>
       </c>
       <c r="D23">
-        <v>1.015868674970554</v>
+        <v>1.017135990966137</v>
       </c>
       <c r="E23">
-        <v>1.011468742204116</v>
+        <v>1.010650328260333</v>
       </c>
       <c r="F23">
-        <v>1.016139786892834</v>
+        <v>1.015371685670048</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042999853179028</v>
+        <v>1.04323581163148</v>
       </c>
       <c r="J23">
-        <v>1.025910661167868</v>
+        <v>1.024882857750053</v>
       </c>
       <c r="K23">
-        <v>1.030826503414382</v>
+        <v>1.032070323016292</v>
       </c>
       <c r="L23">
-        <v>1.026508743564275</v>
+        <v>1.025705717370262</v>
       </c>
       <c r="M23">
-        <v>1.031092582418862</v>
+        <v>1.030338749320322</v>
       </c>
       <c r="N23">
-        <v>1.027367571980324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012151146703042</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033805676316475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002290772258311</v>
+        <v>0.9999999230199345</v>
       </c>
       <c r="D24">
-        <v>1.020701713806735</v>
+        <v>1.020607659412479</v>
       </c>
       <c r="E24">
-        <v>1.016992104041651</v>
+        <v>1.01510311451519</v>
       </c>
       <c r="F24">
-        <v>1.022367654272638</v>
+        <v>1.020512114691952</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045023160738457</v>
+        <v>1.044542831993075</v>
       </c>
       <c r="J24">
-        <v>1.029700925052121</v>
+        <v>1.027497975906383</v>
       </c>
       <c r="K24">
-        <v>1.03437478239942</v>
+        <v>1.034282294713464</v>
       </c>
       <c r="L24">
-        <v>1.030727248619194</v>
+        <v>1.028870094050885</v>
       </c>
       <c r="M24">
-        <v>1.036013034016259</v>
+        <v>1.034188341907196</v>
       </c>
       <c r="N24">
-        <v>1.031163218474041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013031176265458</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035362142435325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009730104684764</v>
+        <v>1.00611247530264</v>
       </c>
       <c r="D25">
-        <v>1.026127868416896</v>
+        <v>1.024536180803164</v>
       </c>
       <c r="E25">
-        <v>1.023203384099879</v>
+        <v>1.020142890967146</v>
       </c>
       <c r="F25">
-        <v>1.029369949126511</v>
+        <v>1.026327137026409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047254199958854</v>
+        <v>1.045983867098804</v>
       </c>
       <c r="J25">
-        <v>1.033934391177543</v>
+        <v>1.030435866890275</v>
       </c>
       <c r="K25">
-        <v>1.038333684054945</v>
+        <v>1.036765180627481</v>
       </c>
       <c r="L25">
-        <v>1.035451867579179</v>
+        <v>1.032436359385605</v>
       </c>
       <c r="M25">
-        <v>1.041528822269368</v>
+        <v>1.038530056582514</v>
       </c>
       <c r="N25">
-        <v>1.035402696606947</v>
+        <v>1.01401981518623</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037114809353214</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010822811140761</v>
+        <v>1.010449405425143</v>
       </c>
       <c r="D2">
-        <v>1.027561994155947</v>
+        <v>1.026711918475442</v>
       </c>
       <c r="E2">
-        <v>1.024046994073128</v>
+        <v>1.023719360074378</v>
       </c>
       <c r="F2">
-        <v>1.030832506703028</v>
+        <v>1.030484839870156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0470587296847</v>
+        <v>1.046710204165639</v>
       </c>
       <c r="J2">
-        <v>1.032684563183312</v>
+        <v>1.032322006097196</v>
       </c>
       <c r="K2">
-        <v>1.038650250089448</v>
+        <v>1.037811246313578</v>
       </c>
       <c r="L2">
-        <v>1.03518118082847</v>
+        <v>1.034857848195097</v>
       </c>
       <c r="M2">
-        <v>1.04187837851642</v>
+        <v>1.041535201273383</v>
       </c>
       <c r="N2">
-        <v>1.014774617708972</v>
+        <v>1.015752507637673</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038399347331586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037814875336913</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022130944334707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0141775995135</v>
+        <v>1.013699440801702</v>
       </c>
       <c r="D3">
-        <v>1.029735771432281</v>
+        <v>1.028740905256177</v>
       </c>
       <c r="E3">
-        <v>1.026840987169241</v>
+        <v>1.026420444589202</v>
       </c>
       <c r="F3">
-        <v>1.034054181731955</v>
+        <v>1.033611940149562</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047815636601716</v>
+        <v>1.047395790608274</v>
       </c>
       <c r="J3">
-        <v>1.034289091383584</v>
+        <v>1.033823486472827</v>
       </c>
       <c r="K3">
-        <v>1.040001805628476</v>
+        <v>1.039018787720426</v>
       </c>
       <c r="L3">
-        <v>1.037141575655197</v>
+        <v>1.036726073097197</v>
       </c>
       <c r="M3">
-        <v>1.044269113415866</v>
+        <v>1.043832080860225</v>
       </c>
       <c r="N3">
-        <v>1.015314235156977</v>
+        <v>1.016153881714176</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03935234829699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038665770680063</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022354865226932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01631427955527</v>
+        <v>1.015769990303033</v>
       </c>
       <c r="D4">
-        <v>1.031124448625545</v>
+        <v>1.030037713977516</v>
       </c>
       <c r="E4">
-        <v>1.02862608437711</v>
+        <v>1.028146833666112</v>
       </c>
       <c r="F4">
-        <v>1.036112061533902</v>
+        <v>1.035610097685489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048290899215182</v>
+        <v>1.047825772198531</v>
       </c>
       <c r="J4">
-        <v>1.035309674694654</v>
+        <v>1.034778723224778</v>
       </c>
       <c r="K4">
-        <v>1.040861198693846</v>
+        <v>1.03978663858019</v>
       </c>
       <c r="L4">
-        <v>1.038390870576834</v>
+        <v>1.037917017106076</v>
       </c>
       <c r="M4">
-        <v>1.045793338845747</v>
+        <v>1.045296928159175</v>
       </c>
       <c r="N4">
-        <v>1.015657460803939</v>
+        <v>1.016409260391355</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039960908143279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039209685318699</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022494993719128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017207113069001</v>
+        <v>1.016635326578543</v>
       </c>
       <c r="D5">
-        <v>1.031707794210125</v>
+        <v>1.030582799453261</v>
       </c>
       <c r="E5">
-        <v>1.029373509582069</v>
+        <v>1.028869836372071</v>
       </c>
       <c r="F5">
-        <v>1.036973281934364</v>
+        <v>1.036446482780486</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048489137179786</v>
+        <v>1.048005134763629</v>
       </c>
       <c r="J5">
-        <v>1.035737047722208</v>
+        <v>1.035178860360366</v>
       </c>
       <c r="K5">
-        <v>1.041222626308609</v>
+        <v>1.040109904404681</v>
       </c>
       <c r="L5">
-        <v>1.03891384372035</v>
+        <v>1.038415691777129</v>
       </c>
       <c r="M5">
-        <v>1.046431105427726</v>
+        <v>1.045909977878735</v>
       </c>
       <c r="N5">
-        <v>1.015801384363464</v>
+        <v>1.016516399233055</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040223635846514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039446140827329</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022553862575761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017359626026635</v>
+        <v>1.016783152755109</v>
       </c>
       <c r="D6">
-        <v>1.031810042313479</v>
+        <v>1.030678573304596</v>
       </c>
       <c r="E6">
-        <v>1.029501484785838</v>
+        <v>1.028993647877149</v>
       </c>
       <c r="F6">
-        <v>1.037120351351632</v>
+        <v>1.036589319533945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048524490434221</v>
+        <v>1.048037280292218</v>
       </c>
       <c r="J6">
-        <v>1.035811555312348</v>
+        <v>1.035248723181875</v>
       </c>
       <c r="K6">
-        <v>1.04128760080548</v>
+        <v>1.040168419600283</v>
       </c>
       <c r="L6">
-        <v>1.039004149497993</v>
+        <v>1.038501854016138</v>
       </c>
       <c r="M6">
-        <v>1.046540678516173</v>
+        <v>1.046015337511229</v>
       </c>
       <c r="N6">
-        <v>1.015826717988228</v>
+        <v>1.016535298180169</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040278319858161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039497126510041</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022565000558773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016334464968705</v>
+        <v>1.015796089632311</v>
       </c>
       <c r="D7">
-        <v>1.031144438154149</v>
+        <v>1.03006166372189</v>
       </c>
       <c r="E7">
-        <v>1.028643581541676</v>
+        <v>1.028169626758106</v>
       </c>
       <c r="F7">
-        <v>1.036131189615909</v>
+        <v>1.035634515103733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048299644771038</v>
+        <v>1.047837310420853</v>
       </c>
       <c r="J7">
-        <v>1.035323424478402</v>
+        <v>1.034798236387698</v>
       </c>
       <c r="K7">
-        <v>1.040878084263679</v>
+        <v>1.039807435319594</v>
       </c>
       <c r="L7">
-        <v>1.03840528113638</v>
+        <v>1.037936661913201</v>
       </c>
       <c r="M7">
-        <v>1.045809393606762</v>
+        <v>1.045318211628071</v>
       </c>
       <c r="N7">
-        <v>1.015662749988766</v>
+        <v>1.016440719738669</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039992953467162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039246495189851</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022500685654104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011974006248917</v>
+        <v>1.01158460032663</v>
       </c>
       <c r="D8">
-        <v>1.028315427439783</v>
+        <v>1.027430171029009</v>
       </c>
       <c r="E8">
-        <v>1.025005374535702</v>
+        <v>1.024663743794125</v>
       </c>
       <c r="F8">
-        <v>1.031936389555425</v>
+        <v>1.031574164301274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047325095963</v>
+        <v>1.046961903239955</v>
       </c>
       <c r="J8">
-        <v>1.033240479349341</v>
+        <v>1.032862012942565</v>
       </c>
       <c r="K8">
-        <v>1.039125036039036</v>
+        <v>1.038250972701485</v>
       </c>
       <c r="L8">
-        <v>1.035856958693564</v>
+        <v>1.03551967953729</v>
       </c>
       <c r="M8">
-        <v>1.042700464417089</v>
+        <v>1.042342776218416</v>
       </c>
       <c r="N8">
-        <v>1.014962436090413</v>
+        <v>1.015975680703344</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038757967027511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038150972528056</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022216206783856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004005807884802</v>
+        <v>1.003871856342147</v>
       </c>
       <c r="D9">
-        <v>1.023169452087719</v>
+        <v>1.022632232924884</v>
       </c>
       <c r="E9">
-        <v>1.018401246081108</v>
+        <v>1.01828583425488</v>
       </c>
       <c r="F9">
-        <v>1.024319555088008</v>
+        <v>1.024187863957486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045484829945739</v>
+        <v>1.045293329359784</v>
       </c>
       <c r="J9">
-        <v>1.029417899458271</v>
+        <v>1.029288626357769</v>
       </c>
       <c r="K9">
-        <v>1.035897481809329</v>
+        <v>1.035368487818846</v>
       </c>
       <c r="L9">
-        <v>1.031202667511256</v>
+        <v>1.03108904297362</v>
       </c>
       <c r="M9">
-        <v>1.037030012978307</v>
+        <v>1.036900331337412</v>
       </c>
       <c r="N9">
-        <v>1.013676136676173</v>
+        <v>1.015029439006816</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036472699100158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036109409740035</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021667749919124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9984989037473114</v>
+        <v>0.9985748222111869</v>
       </c>
       <c r="D10">
-        <v>1.019640747230876</v>
+        <v>1.019367509906846</v>
       </c>
       <c r="E10">
-        <v>1.01386965494679</v>
+        <v>1.013939962766774</v>
       </c>
       <c r="F10">
-        <v>1.019089385464128</v>
+        <v>1.019146884789273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I10">
-        <v>1.044180453138839</v>
+        <v>1.044122908896618</v>
       </c>
       <c r="J10">
-        <v>1.026772205300404</v>
+        <v>1.026845099141694</v>
       </c>
       <c r="K10">
-        <v>1.033664211501434</v>
+        <v>1.033395666576439</v>
       </c>
       <c r="L10">
-        <v>1.027992924015307</v>
+        <v>1.028062007086541</v>
       </c>
       <c r="M10">
-        <v>1.033122321801675</v>
+        <v>1.033178832703826</v>
       </c>
       <c r="N10">
-        <v>1.012786261410283</v>
+        <v>1.01449271553509</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034910458376506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034733000720187</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021283450853248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.996074359137891</v>
+        <v>0.9962910638507945</v>
       </c>
       <c r="D11">
-        <v>1.018101771419743</v>
+        <v>1.017979758795078</v>
       </c>
       <c r="E11">
-        <v>1.011883539902426</v>
+        <v>1.012079011252665</v>
       </c>
       <c r="F11">
-        <v>1.016794827819813</v>
+        <v>1.016979358807697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043603487363238</v>
+        <v>1.043628478663394</v>
       </c>
       <c r="J11">
-        <v>1.025611366198779</v>
+        <v>1.025818957068224</v>
       </c>
       <c r="K11">
-        <v>1.032690202494181</v>
+        <v>1.032570386086703</v>
       </c>
       <c r="L11">
-        <v>1.026584776589446</v>
+        <v>1.026776674399663</v>
       </c>
       <c r="M11">
-        <v>1.031406819413303</v>
+        <v>1.031588019053258</v>
       </c>
       <c r="N11">
-        <v>1.01239686119274</v>
+        <v>1.014446762963963</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034254660646797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034185579102792</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02112518100579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9951601997215892</v>
+        <v>0.9954345750983904</v>
       </c>
       <c r="D12">
-        <v>1.017517985130373</v>
+        <v>1.017456266479664</v>
       </c>
       <c r="E12">
-        <v>1.011135397871055</v>
+        <v>1.011382217436459</v>
       </c>
       <c r="F12">
-        <v>1.015931097418311</v>
+        <v>1.01616773664793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043382039247885</v>
+        <v>1.043440419467733</v>
       </c>
       <c r="J12">
-        <v>1.025170810420563</v>
+        <v>1.025433416616993</v>
       </c>
       <c r="K12">
-        <v>1.032317091696265</v>
+        <v>1.032256503146978</v>
       </c>
       <c r="L12">
-        <v>1.026052326148702</v>
+        <v>1.026294553398735</v>
       </c>
       <c r="M12">
-        <v>1.03075931757365</v>
+        <v>1.030991607823462</v>
       </c>
       <c r="N12">
-        <v>1.012248550604875</v>
+        <v>1.014445132258524</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033990858716251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033963657889645</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021064099791223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9953555250430931</v>
+        <v>0.9956173763967407</v>
       </c>
       <c r="D13">
-        <v>1.017641788977701</v>
+        <v>1.01756702480489</v>
       </c>
       <c r="E13">
-        <v>1.011295086197912</v>
+        <v>1.01153075348666</v>
       </c>
       <c r="F13">
-        <v>1.016115611482404</v>
+        <v>1.016340932625624</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04342886514227</v>
+        <v>1.043480011297452</v>
       </c>
       <c r="J13">
-        <v>1.025264411092186</v>
+        <v>1.02551507767729</v>
       </c>
       <c r="K13">
-        <v>1.032395702785875</v>
+        <v>1.03232230259796</v>
       </c>
       <c r="L13">
-        <v>1.026165724634107</v>
+        <v>1.026397023531924</v>
       </c>
       <c r="M13">
-        <v>1.030897420404127</v>
+        <v>1.031118616316688</v>
       </c>
       <c r="N13">
-        <v>1.012279953723323</v>
+        <v>1.014444445461953</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034043943494589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034007441076066</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021076737626596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9959984761284316</v>
+        <v>0.9962198747956547</v>
       </c>
       <c r="D14">
-        <v>1.018052912622125</v>
+        <v>1.017935830263528</v>
       </c>
       <c r="E14">
-        <v>1.011821366210201</v>
+        <v>1.012021016258885</v>
       </c>
       <c r="F14">
-        <v>1.016723114039739</v>
+        <v>1.016911885311164</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043584896998359</v>
+        <v>1.04361261362001</v>
       </c>
       <c r="J14">
-        <v>1.025574569371509</v>
+        <v>1.025786641501215</v>
       </c>
       <c r="K14">
-        <v>1.032658756442342</v>
+        <v>1.032543784558553</v>
       </c>
       <c r="L14">
-        <v>1.026540421059852</v>
+        <v>1.026736415835202</v>
       </c>
       <c r="M14">
-        <v>1.031352965397848</v>
+        <v>1.031538323712323</v>
       </c>
       <c r="N14">
-        <v>1.012384428206291</v>
+        <v>1.014446159488093</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034231357973463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034165598204331</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021119933027178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9963957995972594</v>
+        <v>0.996592804364106</v>
       </c>
       <c r="D15">
-        <v>1.018308871950043</v>
+        <v>1.018166111031646</v>
       </c>
       <c r="E15">
-        <v>1.012146969824512</v>
+        <v>1.012324906554967</v>
       </c>
       <c r="F15">
-        <v>1.017098658076058</v>
+        <v>1.017265396043707</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043682246282017</v>
+        <v>1.043695784737275</v>
       </c>
       <c r="J15">
-        <v>1.025767288416717</v>
+        <v>1.025956065381245</v>
       </c>
       <c r="K15">
-        <v>1.032823519527351</v>
+        <v>1.032683312796292</v>
       </c>
       <c r="L15">
-        <v>1.026772715215337</v>
+        <v>1.026947419112063</v>
       </c>
       <c r="M15">
-        <v>1.031634987550687</v>
+        <v>1.031798734300806</v>
       </c>
       <c r="N15">
-        <v>1.01244955535357</v>
+        <v>1.014450029495015</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034353730243798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034270697416128</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02114747535275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9986780000875503</v>
+        <v>0.998744493808927</v>
       </c>
       <c r="D16">
-        <v>1.019769918576467</v>
+        <v>1.019486483305215</v>
       </c>
       <c r="E16">
-        <v>1.01401835576506</v>
+        <v>1.014080270163705</v>
       </c>
       <c r="F16">
-        <v>1.019258639501591</v>
+        <v>1.019307623679297</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044232286624948</v>
+        <v>1.044169133964311</v>
       </c>
       <c r="J16">
-        <v>1.026867213845555</v>
+        <v>1.02693106822143</v>
       </c>
       <c r="K16">
-        <v>1.033755508276513</v>
+        <v>1.033476924780194</v>
       </c>
       <c r="L16">
-        <v>1.028103086430483</v>
+        <v>1.028163925847215</v>
       </c>
       <c r="M16">
-        <v>1.033252983678714</v>
+        <v>1.03330112862357</v>
       </c>
       <c r="N16">
-        <v>1.012819941297548</v>
+        <v>1.014504588499018</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03501585296809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034835280946778</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02130201187152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000095734962857</v>
+        <v>1.000090804465837</v>
       </c>
       <c r="D17">
-        <v>1.020679251030044</v>
+        <v>1.020315408476688</v>
       </c>
       <c r="E17">
-        <v>1.015183041844865</v>
+        <v>1.015181557351041</v>
       </c>
       <c r="F17">
-        <v>1.020602698123935</v>
+        <v>1.020587299229526</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044571926668164</v>
+        <v>1.044465847792613</v>
       </c>
       <c r="J17">
-        <v>1.027550234714432</v>
+        <v>1.027545493639264</v>
       </c>
       <c r="K17">
-        <v>1.0343341594762</v>
+        <v>1.033976370590578</v>
       </c>
       <c r="L17">
-        <v>1.028929993396652</v>
+        <v>1.028928533936791</v>
       </c>
       <c r="M17">
-        <v>1.034258879807232</v>
+        <v>1.034243737058805</v>
       </c>
       <c r="N17">
-        <v>1.013049944956027</v>
+        <v>1.014575056060828</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035427572673772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035191245544628</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021399291804141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000911868301672</v>
+        <v>1.000869582854749</v>
       </c>
       <c r="D18">
-        <v>1.021198602653242</v>
+        <v>1.020791096673221</v>
       </c>
       <c r="E18">
-        <v>1.015853724645004</v>
+        <v>1.015819120677433</v>
       </c>
       <c r="F18">
-        <v>1.021377357139996</v>
+        <v>1.02132829931456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044763810337495</v>
+        <v>1.044634839087572</v>
       </c>
       <c r="J18">
-        <v>1.02794047055797</v>
+        <v>1.027899778601683</v>
       </c>
       <c r="K18">
-        <v>1.034661185153986</v>
+        <v>1.034260346282741</v>
       </c>
       <c r="L18">
-        <v>1.029404300562883</v>
+        <v>1.02937027016874</v>
       </c>
       <c r="M18">
-        <v>1.03483701723854</v>
+        <v>1.034788761313517</v>
       </c>
       <c r="N18">
-        <v>1.013180812732614</v>
+        <v>1.014628606528412</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03564714179153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035379239834865</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021453730884789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001193910581865</v>
+        <v>1.001139390958543</v>
       </c>
       <c r="D19">
-        <v>1.021381845472441</v>
+        <v>1.020959799223616</v>
       </c>
       <c r="E19">
-        <v>1.016086049757533</v>
+        <v>1.016040600443467</v>
       </c>
       <c r="F19">
-        <v>1.021645089168231</v>
+        <v>1.02158500556962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044832241104238</v>
+        <v>1.044695690826774</v>
       </c>
       <c r="J19">
-        <v>1.028077525226239</v>
+        <v>1.028025046531024</v>
       </c>
       <c r="K19">
-        <v>1.034778811195596</v>
+        <v>1.034363630056264</v>
       </c>
       <c r="L19">
-        <v>1.0295696897611</v>
+        <v>1.029524989329337</v>
       </c>
       <c r="M19">
-        <v>1.035037776592939</v>
+        <v>1.034978669237672</v>
       </c>
       <c r="N19">
-        <v>1.013227200666083</v>
+        <v>1.01465084004631</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035736706638187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035459286005703</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021474245392296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9999436718867463</v>
+        <v>0.9999460116096696</v>
       </c>
       <c r="D20">
-        <v>1.020581289701057</v>
+        <v>1.020225783865599</v>
       </c>
       <c r="E20">
-        <v>1.015057998280698</v>
+        <v>1.015062964015453</v>
       </c>
       <c r="F20">
-        <v>1.020458465032389</v>
+        <v>1.020449618657192</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044535351091223</v>
+        <v>1.044433686199869</v>
       </c>
       <c r="J20">
-        <v>1.027476765060917</v>
+        <v>1.027479014577397</v>
       </c>
       <c r="K20">
-        <v>1.034271644924843</v>
+        <v>1.033922072278358</v>
       </c>
       <c r="L20">
-        <v>1.02884113964823</v>
+        <v>1.028846021378079</v>
       </c>
       <c r="M20">
-        <v>1.034150869527428</v>
+        <v>1.034142170774335</v>
       </c>
       <c r="N20">
-        <v>1.013025161788075</v>
+        <v>1.014565890297765</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03538203563133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035151388413516</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021388644433193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9958157045516771</v>
+        <v>0.9960648434559924</v>
       </c>
       <c r="D21">
-        <v>1.017940987691076</v>
+        <v>1.017847801681343</v>
       </c>
       <c r="E21">
-        <v>1.011672329709605</v>
+        <v>1.011896852461722</v>
       </c>
       <c r="F21">
-        <v>1.016550255647696</v>
+        <v>1.016764125741794</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043543610794661</v>
+        <v>1.043586015854828</v>
       </c>
       <c r="J21">
-        <v>1.025489417169101</v>
+        <v>1.02572801830721</v>
       </c>
       <c r="K21">
-        <v>1.032590251983183</v>
+        <v>1.03249875162068</v>
       </c>
       <c r="L21">
-        <v>1.026435889869376</v>
+        <v>1.026656287066112</v>
       </c>
       <c r="M21">
-        <v>1.031224718745985</v>
+        <v>1.031434707873085</v>
       </c>
       <c r="N21">
-        <v>1.012356342317973</v>
+        <v>1.014512334574418</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034196451822002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034148599779022</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021113356589814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9931661498458177</v>
+        <v>0.9935729765449235</v>
       </c>
       <c r="D22">
-        <v>1.016245856813474</v>
+        <v>1.016320609181455</v>
       </c>
       <c r="E22">
-        <v>1.009505736058959</v>
+        <v>1.009870647205616</v>
       </c>
       <c r="F22">
-        <v>1.014049476031359</v>
+        <v>1.014405980187082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042896560268655</v>
+        <v>1.043031156436596</v>
       </c>
       <c r="J22">
-        <v>1.024209245652297</v>
+        <v>1.024597873104268</v>
       </c>
       <c r="K22">
-        <v>1.03150220688439</v>
+        <v>1.03157553978886</v>
       </c>
       <c r="L22">
-        <v>1.024891205543365</v>
+        <v>1.025249068329744</v>
       </c>
       <c r="M22">
-        <v>1.029347655130971</v>
+        <v>1.029697353723113</v>
       </c>
       <c r="N22">
-        <v>1.011924784140186</v>
+        <v>1.01446568052871</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033413636596228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033481029221036</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020931356628265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9945676309443598</v>
+        <v>0.9948804248104531</v>
       </c>
       <c r="D23">
-        <v>1.017135990966137</v>
+        <v>1.01711406325633</v>
       </c>
       <c r="E23">
-        <v>1.010650328260333</v>
+        <v>1.010931387784257</v>
       </c>
       <c r="F23">
-        <v>1.015371685670048</v>
+        <v>1.015643072098688</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04323581163148</v>
+        <v>1.04331636406775</v>
       </c>
       <c r="J23">
-        <v>1.024882857750053</v>
+        <v>1.025182065205573</v>
       </c>
       <c r="K23">
-        <v>1.032070323016292</v>
+        <v>1.032048801203356</v>
       </c>
       <c r="L23">
-        <v>1.025705717370262</v>
+        <v>1.025981488767839</v>
       </c>
       <c r="M23">
-        <v>1.030338749320322</v>
+        <v>1.030605091302617</v>
       </c>
       <c r="N23">
-        <v>1.012151146703042</v>
+        <v>1.014446598624771</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033805676316475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03380505990848</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021022932393088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9999999230199345</v>
+        <v>0.9999995178094148</v>
       </c>
       <c r="D24">
-        <v>1.020607659412479</v>
+        <v>1.020248856336983</v>
       </c>
       <c r="E24">
-        <v>1.01510311451519</v>
+        <v>1.015105657214926</v>
       </c>
       <c r="F24">
-        <v>1.020512114691952</v>
+        <v>1.020500803179676</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044542831993075</v>
+        <v>1.044439494896714</v>
       </c>
       <c r="J24">
-        <v>1.027497975906383</v>
+        <v>1.027497586294122</v>
       </c>
       <c r="K24">
-        <v>1.034282294713464</v>
+        <v>1.033929471807224</v>
       </c>
       <c r="L24">
-        <v>1.028870094050885</v>
+        <v>1.028872593796005</v>
       </c>
       <c r="M24">
-        <v>1.034188341907196</v>
+        <v>1.034177218886617</v>
       </c>
       <c r="N24">
-        <v>1.013031176265458</v>
+        <v>1.014566029425668</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035362142435325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035126524330604</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021388238812084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00611247530264</v>
+        <v>1.005902328608021</v>
       </c>
       <c r="D25">
-        <v>1.024536180803164</v>
+        <v>1.023901016578853</v>
       </c>
       <c r="E25">
-        <v>1.020142890967146</v>
+        <v>1.019959977760507</v>
       </c>
       <c r="F25">
-        <v>1.026327137026409</v>
+        <v>1.026126731687018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045983867098804</v>
+        <v>1.045742933549489</v>
       </c>
       <c r="J25">
-        <v>1.030435866890275</v>
+        <v>1.030232675571691</v>
       </c>
       <c r="K25">
-        <v>1.036765180627481</v>
+        <v>1.036139293602916</v>
       </c>
       <c r="L25">
-        <v>1.032436359385605</v>
+        <v>1.032256145606003</v>
       </c>
       <c r="M25">
-        <v>1.038530056582514</v>
+        <v>1.038332563849889</v>
       </c>
       <c r="N25">
-        <v>1.01401981518623</v>
+        <v>1.015250070392117</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037114809353214</v>
+        <v>1.036685814817955</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021817885968311</v>
       </c>
     </row>
   </sheetData>
